--- a/backend/v1.0/mockDB/Registros_Modbus.xlsx
+++ b/backend/v1.0/mockDB/Registros_Modbus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\mockDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EUSSE\Desktop\proyecto-cali-backend\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60BE1B8-6C49-4162-9858-636AD635ECEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C279000-AACE-4E6A-A32B-49F403B87E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="466">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1469,6 +1469,9 @@
   </si>
   <si>
     <t>4pJB_298afu0WKjKBtPESjnUxvpJV0PODWBNMGzeeU_ahg1P4H3Bg5KOfwI2A9LXm2BQwaQR_un792HXy3bsvg==</t>
+  </si>
+  <si>
+    <t>Laboratorio0. Token</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1842,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1908,11 +1911,32 @@
         <v>464</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4">
+        <v>8086</v>
+      </c>
+      <c r="D4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F4" t="s">
+        <v>465</v>
+      </c>
+    </row>
     <row r="10" spans="1:6">
       <c r="E10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/backend/v1.0/mockDB/Registros_Modbus.xlsx
+++ b/backend/v1.0/mockDB/Registros_Modbus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EUSSE\Desktop\proyecto-cali-backend\backend\v1.0\mockDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/mockDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C279000-AACE-4E6A-A32B-49F403B87E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3C279000-AACE-4E6A-A32B-49F403B87E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C897FE7-83D8-4AF8-9754-B262D69B255F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="467">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1472,13 +1472,16 @@
   </si>
   <si>
     <t>Laboratorio0. Token</t>
+  </si>
+  <si>
+    <t>QM7Xx79NnvECxQt3j3t-js3QSDVpwGaUibCfmO5ECe-4UYGmgQgoESvYSQ-PctdoksZ0aNZe6-S4Y9QOkc4-bQ==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1517,6 +1520,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1842,16 +1846,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -1891,7 +1895,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>436</v>
       </c>
@@ -1931,7 +1935,27 @@
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5">
+        <v>8086</v>
+      </c>
+      <c r="D5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" s="8"/>
     </row>
   </sheetData>
@@ -1948,13 +1972,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -1968,7 +1992,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -1992,17 +2016,17 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>428</v>
       </c>
@@ -2013,7 +2037,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2024,7 +2048,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2035,7 +2059,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2046,7 +2070,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2057,7 +2081,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2068,7 +2092,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2079,7 +2103,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2090,7 +2114,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2101,7 +2125,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2112,7 +2136,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2123,7 +2147,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2134,7 +2158,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2145,7 +2169,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2156,7 +2180,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2167,7 +2191,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2178,7 +2202,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2189,7 +2213,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2200,7 +2224,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2211,7 +2235,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2222,7 +2246,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2233,136 +2257,136 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
     </row>
   </sheetData>
@@ -2378,18 +2402,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2415,7 +2439,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2441,7 +2465,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2467,7 +2491,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2493,7 +2517,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2519,7 +2543,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2545,7 +2569,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2571,7 +2595,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2597,7 +2621,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2623,7 +2647,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2649,7 +2673,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2675,7 +2699,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2701,7 +2725,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2727,7 +2751,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -2753,7 +2777,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -2779,7 +2803,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -2805,7 +2829,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2831,7 +2855,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2857,7 +2881,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2883,7 +2907,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2906,7 +2930,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2929,7 +2953,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2952,7 +2976,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2978,7 +3002,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3004,7 +3028,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3030,7 +3054,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3056,7 +3080,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3082,7 +3106,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3108,7 +3132,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3134,7 +3158,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -3160,7 +3184,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -3186,7 +3210,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3212,7 +3236,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -3238,7 +3262,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -3264,7 +3288,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -3290,7 +3314,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -3316,7 +3340,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -3342,7 +3366,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -3368,7 +3392,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -3394,7 +3418,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -3420,7 +3444,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -3446,7 +3470,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -3472,7 +3496,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -3498,7 +3522,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -3524,7 +3548,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -3550,7 +3574,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -3576,7 +3600,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -3602,7 +3626,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -3628,7 +3652,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -3654,7 +3678,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -3680,7 +3704,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -3706,7 +3730,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -3732,7 +3756,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -3758,7 +3782,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -3784,7 +3808,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -3810,7 +3834,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -3836,7 +3860,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -3862,7 +3886,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -3888,7 +3912,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -3914,7 +3938,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -3940,7 +3964,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -3966,7 +3990,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -3992,7 +4016,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -4018,7 +4042,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -4044,7 +4068,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -4070,7 +4094,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -4096,7 +4120,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -4122,7 +4146,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -4148,7 +4172,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -4174,7 +4198,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -4200,7 +4224,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -4226,7 +4250,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -4252,7 +4276,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -4278,7 +4302,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -4304,7 +4328,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -4330,7 +4354,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -4356,7 +4380,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>238</v>
       </c>
@@ -4382,7 +4406,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -4408,7 +4432,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -4434,7 +4458,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -4460,7 +4484,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -4486,7 +4510,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -4512,7 +4536,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -4538,7 +4562,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -4564,7 +4588,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -4590,7 +4614,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -4616,7 +4640,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -4642,7 +4666,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -4668,7 +4692,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -4694,7 +4718,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -4720,7 +4744,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -4746,7 +4770,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -4772,7 +4796,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -4798,7 +4822,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -4824,7 +4848,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -4850,7 +4874,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -4876,7 +4900,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -4902,7 +4926,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -4928,7 +4952,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -4954,7 +4978,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -4980,7 +5004,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -5006,7 +5030,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -5032,7 +5056,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -5058,7 +5082,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -5084,7 +5108,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -5110,7 +5134,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>263</v>
       </c>
@@ -5136,7 +5160,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -5162,7 +5186,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -5188,7 +5212,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -5214,7 +5238,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -5240,7 +5264,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -5266,7 +5290,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -5292,7 +5316,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -5318,7 +5342,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -5344,7 +5368,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -5370,7 +5394,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -5396,7 +5420,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -5422,7 +5446,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -5448,7 +5472,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -5474,7 +5498,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -5500,7 +5524,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -5526,7 +5550,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -5552,7 +5576,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -5578,7 +5602,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -5604,7 +5628,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -5630,7 +5654,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -5656,7 +5680,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -5682,7 +5706,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -5708,7 +5732,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -5734,7 +5758,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -5760,7 +5784,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>88</v>
       </c>
@@ -5786,7 +5810,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>90</v>
       </c>
@@ -5812,7 +5836,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -5838,7 +5862,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>94</v>
       </c>
@@ -5864,7 +5888,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -5890,7 +5914,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>98</v>
       </c>

--- a/backend/v1.0/mockDB/Registros_Modbus.xlsx
+++ b/backend/v1.0/mockDB/Registros_Modbus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/mockDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3C279000-AACE-4E6A-A32B-49F403B87E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C897FE7-83D8-4AF8-9754-B262D69B255F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3C279000-AACE-4E6A-A32B-49F403B87E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFD72881-7C36-43B3-AB7D-D38FFEE8E74B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="468">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1474,7 +1474,10 @@
     <t>Laboratorio0. Token</t>
   </si>
   <si>
-    <t>QM7Xx79NnvECxQt3j3t-js3QSDVpwGaUibCfmO5ECe-4UYGmgQgoESvYSQ-PctdoksZ0aNZe6-S4Y9QOkc4-bQ==</t>
+    <t>WKSFZMIEjx1pLZq9S2Qb8hG3HNPfPr4nyvzrA48tvl-2JJ6kZQobqbehbuIgu8E89Z97KmESyXLhyBnqZ-pEOQ==</t>
+  </si>
+  <si>
+    <t>UCO</t>
   </si>
 </sst>
 </file>
@@ -1578,6 +1581,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1846,7 +1853,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1949,7 +1956,7 @@
         <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="F5" t="s">
         <v>466</v>

--- a/backend/v1.0/mockDB/Registros_Modbus.xlsx
+++ b/backend/v1.0/mockDB/Registros_Modbus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/mockDB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3C279000-AACE-4E6A-A32B-49F403B87E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFD72881-7C36-43B3-AB7D-D38FFEE8E74B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2479BA8D-C67D-46E7-9C82-9C823A277CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -1447,15 +1447,6 @@
     <t>TP_Sistema PBM</t>
   </si>
   <si>
-    <t>TP_Iluminación Biogás</t>
-  </si>
-  <si>
-    <t>TP_Iluminación fotovoltaico</t>
-  </si>
-  <si>
-    <t>TP_Iluminación Smartgrid</t>
-  </si>
-  <si>
     <t>TP_Mesa Biogás Fotovoltaico</t>
   </si>
   <si>
@@ -1478,13 +1469,22 @@
   </si>
   <si>
     <t>UCO</t>
+  </si>
+  <si>
+    <t>TP_Iluminación área 2</t>
+  </si>
+  <si>
+    <t>TP_Iluminación área 3</t>
+  </si>
+  <si>
+    <t>TP_Iluminación área 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1581,10 +1581,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1852,17 +1848,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -1882,7 +1878,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -1902,7 +1898,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -1919,10 +1915,10 @@
         <v>438</v>
       </c>
       <c r="F3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>436</v>
       </c>
@@ -1939,10 +1935,10 @@
         <v>438</v>
       </c>
       <c r="F4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -1956,13 +1952,13 @@
         <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="E10" s="8"/>
     </row>
   </sheetData>
@@ -1979,13 +1975,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -1999,12 +1995,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>435</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C2">
         <v>502</v>
@@ -2019,21 +2015,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CD35D0-9EE9-4275-9C31-2C2F45CAD389}">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>428</v>
       </c>
@@ -2044,7 +2040,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2055,7 +2051,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2066,7 +2062,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2077,7 +2073,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2088,7 +2084,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2099,7 +2095,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2110,7 +2106,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2121,7 +2117,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2132,7 +2128,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2143,18 +2139,18 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C11" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2165,18 +2161,18 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C13" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2187,51 +2183,51 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C15" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C16" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C17" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C18" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2242,7 +2238,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2253,7 +2249,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2264,136 +2260,136 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1">
       <c r="A93" s="2"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1">
       <c r="A118" s="6"/>
     </row>
   </sheetData>
@@ -2409,18 +2405,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2446,7 +2442,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +2468,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2494,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2524,7 +2520,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2550,7 +2546,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2576,7 +2572,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2602,7 +2598,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2628,7 +2624,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2654,7 +2650,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2680,7 +2676,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2706,7 +2702,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2732,7 +2728,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2758,7 +2754,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -2784,7 +2780,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -2810,7 +2806,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -2836,7 +2832,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2862,7 +2858,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2888,7 +2884,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2914,7 +2910,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2937,7 +2933,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2960,7 +2956,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2983,7 +2979,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3009,7 +3005,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3035,7 +3031,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3061,7 +3057,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3087,7 +3083,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3113,7 +3109,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3139,7 +3135,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3165,7 +3161,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -3191,7 +3187,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -3217,7 +3213,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3243,7 +3239,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -3269,7 +3265,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -3295,7 +3291,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -3321,7 +3317,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -3347,7 +3343,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -3373,7 +3369,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -3399,7 +3395,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -3425,7 +3421,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -3451,7 +3447,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -3477,7 +3473,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -3503,7 +3499,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -3529,7 +3525,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -3555,7 +3551,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -3581,7 +3577,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -3607,7 +3603,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -3633,7 +3629,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -3659,7 +3655,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -3685,7 +3681,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -3711,7 +3707,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -3737,7 +3733,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -3763,7 +3759,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -3789,7 +3785,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -3815,7 +3811,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -3841,7 +3837,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -3867,7 +3863,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -3893,7 +3889,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -3919,7 +3915,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -3945,7 +3941,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -3971,7 +3967,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -3997,7 +3993,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -4023,7 +4019,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -4049,7 +4045,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -4075,7 +4071,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -4101,7 +4097,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -4127,7 +4123,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -4153,7 +4149,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -4179,7 +4175,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -4205,7 +4201,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -4231,7 +4227,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -4257,7 +4253,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -4283,7 +4279,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -4309,7 +4305,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -4335,7 +4331,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -4361,7 +4357,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -4387,7 +4383,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>238</v>
       </c>
@@ -4413,7 +4409,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -4439,7 +4435,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -4465,7 +4461,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -4491,7 +4487,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -4517,7 +4513,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -4543,7 +4539,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -4569,7 +4565,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -4595,7 +4591,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -4621,7 +4617,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -4647,7 +4643,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -4673,7 +4669,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -4699,7 +4695,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -4725,7 +4721,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -4751,7 +4747,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -4777,7 +4773,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -4803,7 +4799,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -4829,7 +4825,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -4855,7 +4851,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -4881,7 +4877,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -4907,7 +4903,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -4933,7 +4929,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -4959,7 +4955,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -4985,7 +4981,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -5011,7 +5007,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -5037,7 +5033,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -5063,7 +5059,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -5089,7 +5085,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -5115,7 +5111,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -5141,7 +5137,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>263</v>
       </c>
@@ -5167,7 +5163,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -5193,7 +5189,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -5219,7 +5215,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -5245,7 +5241,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -5271,7 +5267,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -5297,7 +5293,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -5323,7 +5319,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -5349,7 +5345,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -5375,7 +5371,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -5401,7 +5397,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -5427,7 +5423,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -5453,7 +5449,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -5479,7 +5475,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -5505,7 +5501,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -5531,7 +5527,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -5557,7 +5553,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -5583,7 +5579,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -5609,7 +5605,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -5635,7 +5631,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -5661,7 +5657,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -5687,7 +5683,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -5713,7 +5709,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -5739,7 +5735,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -5765,7 +5761,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -5791,7 +5787,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" s="6" t="s">
         <v>88</v>
       </c>
@@ -5817,7 +5813,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" s="6" t="s">
         <v>90</v>
       </c>
@@ -5843,7 +5839,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -5869,7 +5865,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" s="6" t="s">
         <v>94</v>
       </c>
@@ -5895,7 +5891,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -5921,7 +5917,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>98</v>
       </c>

--- a/backend/v1.0/mockDB/Registros_Modbus.xlsx
+++ b/backend/v1.0/mockDB/Registros_Modbus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\backend\v1.0\mockDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2479BA8D-C67D-46E7-9C82-9C823A277CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24F4F13-B3A8-43CA-8F32-B69876196D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -1396,9 +1396,6 @@
     <t>8cxXa7GbnvKdSl-4MDLHYNryUfhL98evV2U2Bz84S8EhXzkTEcRiBWbh_HP38GJ31qzZisPJQTvZ0i0EU_DVdg==</t>
   </si>
   <si>
-    <t>Laboratorio</t>
-  </si>
-  <si>
     <t>Unsigned</t>
   </si>
   <si>
@@ -1478,6 +1475,9 @@
   </si>
   <si>
     <t>TP_Iluminación área 1</t>
+  </si>
+  <si>
+    <t>Laboratorio_Energías</t>
   </si>
 </sst>
 </file>
@@ -1848,12 +1848,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="100.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1889,7 +1890,7 @@
         <v>8086</v>
       </c>
       <c r="D2" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="E2" t="s">
         <v>438</v>
@@ -1909,13 +1910,13 @@
         <v>8086</v>
       </c>
       <c r="D3" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="E3" t="s">
         <v>438</v>
       </c>
       <c r="F3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1929,13 +1930,13 @@
         <v>8086</v>
       </c>
       <c r="D4" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="E4" t="s">
         <v>438</v>
       </c>
       <c r="F4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1949,13 +1950,13 @@
         <v>8086</v>
       </c>
       <c r="D5" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="E5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2000,7 +2001,7 @@
         <v>435</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C2">
         <v>502</v>
@@ -2015,7 +2016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CD35D0-9EE9-4275-9C31-2C2F45CAD389}">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2045,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C2" t="s">
         <v>435</v>
@@ -2056,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C3" t="s">
         <v>435</v>
@@ -2067,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C4" t="s">
         <v>435</v>
@@ -2078,7 +2079,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
         <v>435</v>
@@ -2089,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C6" t="s">
         <v>435</v>
@@ -2100,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C7" t="s">
         <v>435</v>
@@ -2111,7 +2112,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
         <v>435</v>
@@ -2122,7 +2123,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C9" t="s">
         <v>435</v>
@@ -2133,7 +2134,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
         <v>435</v>
@@ -2144,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C11" t="s">
         <v>435</v>
@@ -2155,7 +2156,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C12" t="s">
         <v>435</v>
@@ -2166,7 +2167,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C13" t="s">
         <v>435</v>
@@ -2177,7 +2178,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C14" t="s">
         <v>435</v>
@@ -2188,7 +2189,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C15" t="s">
         <v>435</v>
@@ -2199,7 +2200,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C16" t="s">
         <v>435</v>
@@ -2210,7 +2211,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C17" t="s">
         <v>435</v>
@@ -2221,7 +2222,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C18" t="s">
         <v>435</v>
@@ -2232,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C19" t="s">
         <v>435</v>
@@ -2243,7 +2244,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C20" t="s">
         <v>435</v>
@@ -2254,7 +2255,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
         <v>435</v>
@@ -2459,7 +2460,7 @@
         <v>411</v>
       </c>
       <c r="F2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -2485,7 +2486,7 @@
         <v>411</v>
       </c>
       <c r="F3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -2511,7 +2512,7 @@
         <v>411</v>
       </c>
       <c r="F4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -2537,7 +2538,7 @@
         <v>419</v>
       </c>
       <c r="F5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G5">
         <v>10000</v>
@@ -2563,7 +2564,7 @@
         <v>419</v>
       </c>
       <c r="F6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G6">
         <v>10000</v>
@@ -2589,7 +2590,7 @@
         <v>419</v>
       </c>
       <c r="F7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G7">
         <v>10000</v>
@@ -2615,7 +2616,7 @@
         <v>411</v>
       </c>
       <c r="F8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -2641,7 +2642,7 @@
         <v>411</v>
       </c>
       <c r="F9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -2667,7 +2668,7 @@
         <v>411</v>
       </c>
       <c r="F10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -2693,7 +2694,7 @@
         <v>420</v>
       </c>
       <c r="F11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G11">
         <v>100000</v>
@@ -2719,7 +2720,7 @@
         <v>421</v>
       </c>
       <c r="F12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G12">
         <v>100000</v>
@@ -2745,7 +2746,7 @@
         <v>420</v>
       </c>
       <c r="F13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G13">
         <v>100000</v>
@@ -2771,7 +2772,7 @@
         <v>422</v>
       </c>
       <c r="F14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G14">
         <v>100000</v>
@@ -2797,7 +2798,7 @@
         <v>422</v>
       </c>
       <c r="F15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G15">
         <v>100000</v>
@@ -2823,7 +2824,7 @@
         <v>422</v>
       </c>
       <c r="F16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G16">
         <v>100000</v>
@@ -2849,7 +2850,7 @@
         <v>423</v>
       </c>
       <c r="F17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G17">
         <v>100000</v>
@@ -2875,7 +2876,7 @@
         <v>423</v>
       </c>
       <c r="F18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G18">
         <v>100000</v>
@@ -2901,7 +2902,7 @@
         <v>423</v>
       </c>
       <c r="F19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G19">
         <v>100000</v>
@@ -2924,7 +2925,7 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G20">
         <v>10000</v>
@@ -2947,7 +2948,7 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G21">
         <v>10000</v>
@@ -2970,7 +2971,7 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G22">
         <v>10000</v>
@@ -2996,7 +2997,7 @@
         <v>424</v>
       </c>
       <c r="F23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G23">
         <v>1000</v>
@@ -3022,7 +3023,7 @@
         <v>412</v>
       </c>
       <c r="F24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G24">
         <v>100</v>
@@ -3048,7 +3049,7 @@
         <v>412</v>
       </c>
       <c r="F25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G25">
         <v>100</v>
@@ -3074,7 +3075,7 @@
         <v>412</v>
       </c>
       <c r="F26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G26">
         <v>100</v>
@@ -3100,7 +3101,7 @@
         <v>412</v>
       </c>
       <c r="F27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G27">
         <v>100</v>
@@ -3126,7 +3127,7 @@
         <v>412</v>
       </c>
       <c r="F28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G28">
         <v>100</v>
@@ -3152,7 +3153,7 @@
         <v>412</v>
       </c>
       <c r="F29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G29">
         <v>100</v>
@@ -3178,7 +3179,7 @@
         <v>425</v>
       </c>
       <c r="F30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G30">
         <v>100</v>
@@ -3204,7 +3205,7 @@
         <v>425</v>
       </c>
       <c r="F31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G31">
         <v>100</v>
@@ -3230,7 +3231,7 @@
         <v>425</v>
       </c>
       <c r="F32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G32">
         <v>100</v>
@@ -3256,7 +3257,7 @@
         <v>425</v>
       </c>
       <c r="F33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G33">
         <v>100</v>
@@ -3282,7 +3283,7 @@
         <v>425</v>
       </c>
       <c r="F34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G34">
         <v>100</v>
@@ -3308,7 +3309,7 @@
         <v>425</v>
       </c>
       <c r="F35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G35">
         <v>100</v>
@@ -3334,7 +3335,7 @@
         <v>425</v>
       </c>
       <c r="F36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G36">
         <v>100</v>
@@ -3360,7 +3361,7 @@
         <v>425</v>
       </c>
       <c r="F37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G37">
         <v>100</v>
@@ -3386,7 +3387,7 @@
         <v>425</v>
       </c>
       <c r="F38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -3412,7 +3413,7 @@
         <v>425</v>
       </c>
       <c r="F39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G39">
         <v>100</v>
@@ -3438,7 +3439,7 @@
         <v>425</v>
       </c>
       <c r="F40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G40">
         <v>100</v>
@@ -3464,7 +3465,7 @@
         <v>425</v>
       </c>
       <c r="F41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G41">
         <v>100</v>
@@ -3490,7 +3491,7 @@
         <v>425</v>
       </c>
       <c r="F42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G42">
         <v>100</v>
@@ -3516,7 +3517,7 @@
         <v>425</v>
       </c>
       <c r="F43" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G43">
         <v>100</v>
@@ -3542,7 +3543,7 @@
         <v>425</v>
       </c>
       <c r="F44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G44">
         <v>100</v>
@@ -3568,7 +3569,7 @@
         <v>425</v>
       </c>
       <c r="F45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G45">
         <v>100</v>
@@ -3594,7 +3595,7 @@
         <v>425</v>
       </c>
       <c r="F46" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G46">
         <v>100</v>
@@ -3620,7 +3621,7 @@
         <v>425</v>
       </c>
       <c r="F47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G47">
         <v>100</v>
@@ -3646,7 +3647,7 @@
         <v>425</v>
       </c>
       <c r="F48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G48">
         <v>100</v>
@@ -3672,7 +3673,7 @@
         <v>425</v>
       </c>
       <c r="F49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G49">
         <v>100</v>
@@ -3698,7 +3699,7 @@
         <v>425</v>
       </c>
       <c r="F50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G50">
         <v>100</v>
@@ -3724,7 +3725,7 @@
         <v>425</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G51">
         <v>100</v>
@@ -3750,7 +3751,7 @@
         <v>425</v>
       </c>
       <c r="F52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G52">
         <v>100</v>
@@ -3776,7 +3777,7 @@
         <v>425</v>
       </c>
       <c r="F53" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G53">
         <v>100</v>
@@ -3802,7 +3803,7 @@
         <v>425</v>
       </c>
       <c r="F54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G54">
         <v>100</v>
@@ -3828,7 +3829,7 @@
         <v>425</v>
       </c>
       <c r="F55" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G55">
         <v>100</v>
@@ -3854,7 +3855,7 @@
         <v>425</v>
       </c>
       <c r="F56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G56">
         <v>100</v>
@@ -3880,7 +3881,7 @@
         <v>425</v>
       </c>
       <c r="F57" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G57">
         <v>100</v>
@@ -3906,7 +3907,7 @@
         <v>425</v>
       </c>
       <c r="F58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G58">
         <v>100</v>
@@ -3932,7 +3933,7 @@
         <v>425</v>
       </c>
       <c r="F59" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G59">
         <v>100</v>
@@ -3958,7 +3959,7 @@
         <v>425</v>
       </c>
       <c r="F60" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G60">
         <v>100</v>
@@ -3984,7 +3985,7 @@
         <v>425</v>
       </c>
       <c r="F61" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G61">
         <v>100</v>
@@ -4010,7 +4011,7 @@
         <v>425</v>
       </c>
       <c r="F62" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G62">
         <v>100</v>
@@ -4036,7 +4037,7 @@
         <v>425</v>
       </c>
       <c r="F63" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G63">
         <v>100</v>
@@ -4062,7 +4063,7 @@
         <v>425</v>
       </c>
       <c r="F64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G64">
         <v>100</v>
@@ -4088,7 +4089,7 @@
         <v>425</v>
       </c>
       <c r="F65" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G65">
         <v>100</v>
@@ -4114,7 +4115,7 @@
         <v>425</v>
       </c>
       <c r="F66" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G66">
         <v>100</v>
@@ -4140,7 +4141,7 @@
         <v>425</v>
       </c>
       <c r="F67" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G67">
         <v>100</v>
@@ -4166,7 +4167,7 @@
         <v>425</v>
       </c>
       <c r="F68" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G68">
         <v>100</v>
@@ -4192,7 +4193,7 @@
         <v>425</v>
       </c>
       <c r="F69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G69">
         <v>100</v>
@@ -4218,7 +4219,7 @@
         <v>425</v>
       </c>
       <c r="F70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G70">
         <v>100</v>
@@ -4244,7 +4245,7 @@
         <v>425</v>
       </c>
       <c r="F71" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G71">
         <v>100</v>
@@ -4270,7 +4271,7 @@
         <v>425</v>
       </c>
       <c r="F72" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G72">
         <v>100</v>
@@ -4296,7 +4297,7 @@
         <v>425</v>
       </c>
       <c r="F73" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G73">
         <v>100</v>
@@ -4322,7 +4323,7 @@
         <v>425</v>
       </c>
       <c r="F74" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G74">
         <v>100</v>
@@ -4348,7 +4349,7 @@
         <v>425</v>
       </c>
       <c r="F75" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G75">
         <v>100</v>
@@ -4374,7 +4375,7 @@
         <v>425</v>
       </c>
       <c r="F76" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G76">
         <v>100</v>
@@ -4400,7 +4401,7 @@
         <v>425</v>
       </c>
       <c r="F77" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G77">
         <v>100</v>
@@ -4426,7 +4427,7 @@
         <v>425</v>
       </c>
       <c r="F78" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G78">
         <v>100</v>
@@ -4452,7 +4453,7 @@
         <v>425</v>
       </c>
       <c r="F79" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G79">
         <v>100</v>
@@ -4478,7 +4479,7 @@
         <v>425</v>
       </c>
       <c r="F80" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G80">
         <v>100</v>
@@ -4504,7 +4505,7 @@
         <v>425</v>
       </c>
       <c r="F81" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G81">
         <v>100</v>
@@ -4530,7 +4531,7 @@
         <v>425</v>
       </c>
       <c r="F82" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G82">
         <v>100</v>
@@ -4556,7 +4557,7 @@
         <v>425</v>
       </c>
       <c r="F83" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G83">
         <v>100</v>
@@ -4582,7 +4583,7 @@
         <v>425</v>
       </c>
       <c r="F84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G84">
         <v>100</v>
@@ -4608,7 +4609,7 @@
         <v>425</v>
       </c>
       <c r="F85" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G85">
         <v>100</v>
@@ -4634,7 +4635,7 @@
         <v>425</v>
       </c>
       <c r="F86" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G86">
         <v>100</v>
@@ -4660,7 +4661,7 @@
         <v>425</v>
       </c>
       <c r="F87" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G87">
         <v>100</v>
@@ -4686,7 +4687,7 @@
         <v>425</v>
       </c>
       <c r="F88" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G88">
         <v>100</v>
@@ -4712,7 +4713,7 @@
         <v>425</v>
       </c>
       <c r="F89" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G89">
         <v>100</v>
@@ -4738,7 +4739,7 @@
         <v>425</v>
       </c>
       <c r="F90" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G90">
         <v>100</v>
@@ -4764,7 +4765,7 @@
         <v>425</v>
       </c>
       <c r="F91" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G91">
         <v>100</v>
@@ -4790,7 +4791,7 @@
         <v>425</v>
       </c>
       <c r="F92" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G92">
         <v>100</v>
@@ -4816,7 +4817,7 @@
         <v>425</v>
       </c>
       <c r="F93" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G93">
         <v>100</v>
@@ -4842,7 +4843,7 @@
         <v>425</v>
       </c>
       <c r="F94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G94">
         <v>100</v>
@@ -4868,7 +4869,7 @@
         <v>425</v>
       </c>
       <c r="F95" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G95">
         <v>100</v>
@@ -4894,7 +4895,7 @@
         <v>425</v>
       </c>
       <c r="F96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G96">
         <v>100</v>
@@ -4920,7 +4921,7 @@
         <v>425</v>
       </c>
       <c r="F97" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G97">
         <v>100</v>
@@ -4946,7 +4947,7 @@
         <v>425</v>
       </c>
       <c r="F98" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G98">
         <v>100</v>
@@ -4972,7 +4973,7 @@
         <v>425</v>
       </c>
       <c r="F99" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G99">
         <v>100</v>
@@ -4998,7 +4999,7 @@
         <v>425</v>
       </c>
       <c r="F100" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G100">
         <v>100</v>
@@ -5024,7 +5025,7 @@
         <v>425</v>
       </c>
       <c r="F101" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G101">
         <v>100</v>
@@ -5050,7 +5051,7 @@
         <v>425</v>
       </c>
       <c r="F102" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G102">
         <v>100</v>
@@ -5076,7 +5077,7 @@
         <v>425</v>
       </c>
       <c r="F103" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G103">
         <v>100</v>
@@ -5102,7 +5103,7 @@
         <v>425</v>
       </c>
       <c r="F104" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G104">
         <v>100</v>
@@ -5128,7 +5129,7 @@
         <v>425</v>
       </c>
       <c r="F105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G105">
         <v>100</v>
@@ -5154,7 +5155,7 @@
         <v>425</v>
       </c>
       <c r="F106" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G106">
         <v>100</v>
@@ -5180,7 +5181,7 @@
         <v>425</v>
       </c>
       <c r="F107" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G107">
         <v>100</v>
@@ -5206,7 +5207,7 @@
         <v>425</v>
       </c>
       <c r="F108" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G108">
         <v>100</v>
@@ -5232,7 +5233,7 @@
         <v>425</v>
       </c>
       <c r="F109" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G109">
         <v>100</v>
@@ -5258,7 +5259,7 @@
         <v>425</v>
       </c>
       <c r="F110" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G110">
         <v>100</v>
@@ -5284,7 +5285,7 @@
         <v>425</v>
       </c>
       <c r="F111" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G111">
         <v>100</v>
@@ -5310,7 +5311,7 @@
         <v>425</v>
       </c>
       <c r="F112" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G112">
         <v>100</v>
@@ -5336,7 +5337,7 @@
         <v>425</v>
       </c>
       <c r="F113" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G113">
         <v>100</v>
@@ -5362,7 +5363,7 @@
         <v>425</v>
       </c>
       <c r="F114" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G114">
         <v>100</v>
@@ -5388,7 +5389,7 @@
         <v>425</v>
       </c>
       <c r="F115" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G115">
         <v>100</v>
@@ -5414,7 +5415,7 @@
         <v>425</v>
       </c>
       <c r="F116" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G116">
         <v>100</v>
@@ -5440,7 +5441,7 @@
         <v>413</v>
       </c>
       <c r="F117" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G117">
         <v>100</v>
@@ -5466,7 +5467,7 @@
         <v>413</v>
       </c>
       <c r="F118" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G118">
         <v>100</v>
@@ -5492,7 +5493,7 @@
         <v>414</v>
       </c>
       <c r="F119" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G119">
         <v>100</v>
@@ -5518,7 +5519,7 @@
         <v>414</v>
       </c>
       <c r="F120" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G120">
         <v>100</v>
@@ -5544,7 +5545,7 @@
         <v>415</v>
       </c>
       <c r="F121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G121">
         <v>100</v>
@@ -5570,7 +5571,7 @@
         <v>416</v>
       </c>
       <c r="F122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G122">
         <v>100</v>
@@ -5596,7 +5597,7 @@
         <v>416</v>
       </c>
       <c r="F123" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G123">
         <v>100</v>
@@ -5622,7 +5623,7 @@
         <v>417</v>
       </c>
       <c r="F124" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G124">
         <v>100</v>
@@ -5648,7 +5649,7 @@
         <v>417</v>
       </c>
       <c r="F125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G125">
         <v>100</v>
@@ -5674,7 +5675,7 @@
         <v>418</v>
       </c>
       <c r="F126" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G126">
         <v>100</v>
@@ -5700,7 +5701,7 @@
         <v>416</v>
       </c>
       <c r="F127" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G127">
         <v>100</v>
@@ -5726,7 +5727,7 @@
         <v>416</v>
       </c>
       <c r="F128" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G128">
         <v>100</v>
@@ -5752,7 +5753,7 @@
         <v>417</v>
       </c>
       <c r="F129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G129">
         <v>100</v>
@@ -5778,7 +5779,7 @@
         <v>417</v>
       </c>
       <c r="F130" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G130">
         <v>100</v>
@@ -5804,7 +5805,7 @@
         <v>418</v>
       </c>
       <c r="F131" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G131">
         <v>100</v>
@@ -5830,7 +5831,7 @@
         <v>416</v>
       </c>
       <c r="F132" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G132">
         <v>100</v>
@@ -5856,7 +5857,7 @@
         <v>416</v>
       </c>
       <c r="F133" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G133">
         <v>100</v>
@@ -5882,7 +5883,7 @@
         <v>417</v>
       </c>
       <c r="F134" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G134">
         <v>100</v>
@@ -5908,7 +5909,7 @@
         <v>417</v>
       </c>
       <c r="F135" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G135">
         <v>100</v>
@@ -5934,7 +5935,7 @@
         <v>418</v>
       </c>
       <c r="F136" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G136">
         <v>100</v>

--- a/backend/v1.0/mockDB/Registros_Modbus.xlsx
+++ b/backend/v1.0/mockDB/Registros_Modbus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\backend\v1.0\mockDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EUSSE\Desktop\proyecto-cali-backend\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24F4F13-B3A8-43CA-8F32-B69876196D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D91023-A9FC-4C10-B645-5D902403F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="469">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1478,6 +1478,9 @@
   </si>
   <si>
     <t>Laboratorio_Energías</t>
+  </si>
+  <si>
+    <t>Laboratorio</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1852,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1930,7 +1933,7 @@
         <v>8086</v>
       </c>
       <c r="D4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E4" t="s">
         <v>438</v>

--- a/backend/v1.0/mockDB/Registros_Modbus.xlsx
+++ b/backend/v1.0/mockDB/Registros_Modbus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EUSSE\Desktop\proyecto-cali-backend\backend\v1.0\mockDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D91023-A9FC-4C10-B645-5D902403F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653520D1-5398-4714-AF53-66B1E543494A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="588">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -262,12 +262,6 @@
     <t xml:space="preserve">Active Energy - Import </t>
   </si>
   <si>
-    <t xml:space="preserve">0x1B24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active Energy - Export </t>
-  </si>
-  <si>
     <t xml:space="preserve">0x1B28 </t>
   </si>
   <si>
@@ -292,12 +286,6 @@
     <t>L1 Active Energy - Import</t>
   </si>
   <si>
-    <t>0x1B9C</t>
-  </si>
-  <si>
-    <t>L1 Active Energy - Export</t>
-  </si>
-  <si>
     <t>0x1BA0</t>
   </si>
   <si>
@@ -322,12 +310,6 @@
     <t>L2 Active Energy - Import</t>
   </si>
   <si>
-    <t>0x1BB0</t>
-  </si>
-  <si>
-    <t>L2 Active Energy - Export</t>
-  </si>
-  <si>
     <t>0x1BB4</t>
   </si>
   <si>
@@ -352,12 +334,6 @@
     <t>L3 Active Energy - Import</t>
   </si>
   <si>
-    <t>0x1BC4</t>
-  </si>
-  <si>
-    <t>L3 Active Energy - Export</t>
-  </si>
-  <si>
     <t>0x1BC8</t>
   </si>
   <si>
@@ -1279,24 +1255,12 @@
     <t>L3 Energía Reactiva - Importación</t>
   </si>
   <si>
-    <t>L2 Energía Activa - Exportación</t>
-  </si>
-  <si>
     <t>L2 Energía Reactiva - Exportación</t>
   </si>
   <si>
-    <t>L3 Energía Activa - Exportación</t>
-  </si>
-  <si>
-    <t>L1 Energía Activa - Exportación</t>
-  </si>
-  <si>
     <t>Total Energía Activa - Importación</t>
   </si>
   <si>
-    <t>Total Energía Activa - Exportación</t>
-  </si>
-  <si>
     <t>Total Energía Reactiva - Importación</t>
   </si>
   <si>
@@ -1480,7 +1444,400 @@
     <t>Laboratorio_Energías</t>
   </si>
   <si>
-    <t>Laboratorio</t>
+    <t>field</t>
+  </si>
+  <si>
+    <t>V-001</t>
+  </si>
+  <si>
+    <t>V-002</t>
+  </si>
+  <si>
+    <t>V-003</t>
+  </si>
+  <si>
+    <t>I-001</t>
+  </si>
+  <si>
+    <t>I-002</t>
+  </si>
+  <si>
+    <t>I-003</t>
+  </si>
+  <si>
+    <t>V-012</t>
+  </si>
+  <si>
+    <t>V-023</t>
+  </si>
+  <si>
+    <t>V-031</t>
+  </si>
+  <si>
+    <t>P-001</t>
+  </si>
+  <si>
+    <t>P-002</t>
+  </si>
+  <si>
+    <t>P-003</t>
+  </si>
+  <si>
+    <t>Q-001</t>
+  </si>
+  <si>
+    <t>Q-002</t>
+  </si>
+  <si>
+    <t>Q-003</t>
+  </si>
+  <si>
+    <t>S-001</t>
+  </si>
+  <si>
+    <t>S-002</t>
+  </si>
+  <si>
+    <t>S-003</t>
+  </si>
+  <si>
+    <t>FP-001</t>
+  </si>
+  <si>
+    <t>FP-002</t>
+  </si>
+  <si>
+    <t>FP-003</t>
+  </si>
+  <si>
+    <t>FREQ</t>
+  </si>
+  <si>
+    <t>V1-THD</t>
+  </si>
+  <si>
+    <t>V2-THD</t>
+  </si>
+  <si>
+    <t>V3-THD</t>
+  </si>
+  <si>
+    <t>I1-THD</t>
+  </si>
+  <si>
+    <t>I2-THD</t>
+  </si>
+  <si>
+    <t>I3-THD</t>
+  </si>
+  <si>
+    <t>V1-H10</t>
+  </si>
+  <si>
+    <t>V1-H11</t>
+  </si>
+  <si>
+    <t>V1-H12</t>
+  </si>
+  <si>
+    <t>V1-H13</t>
+  </si>
+  <si>
+    <t>V1-H14</t>
+  </si>
+  <si>
+    <t>V1-H15</t>
+  </si>
+  <si>
+    <t>V2-H10</t>
+  </si>
+  <si>
+    <t>V2-H11</t>
+  </si>
+  <si>
+    <t>V2-H12</t>
+  </si>
+  <si>
+    <t>V2-H13</t>
+  </si>
+  <si>
+    <t>V2-H14</t>
+  </si>
+  <si>
+    <t>V2-H15</t>
+  </si>
+  <si>
+    <t>V3-H10</t>
+  </si>
+  <si>
+    <t>V3-H11</t>
+  </si>
+  <si>
+    <t>V3-H12</t>
+  </si>
+  <si>
+    <t>V3-H13</t>
+  </si>
+  <si>
+    <t>V3-H14</t>
+  </si>
+  <si>
+    <t>V3-H15</t>
+  </si>
+  <si>
+    <t>I1-H10</t>
+  </si>
+  <si>
+    <t>I1-H11</t>
+  </si>
+  <si>
+    <t>I1-H12</t>
+  </si>
+  <si>
+    <t>I1-H13</t>
+  </si>
+  <si>
+    <t>I1-H14</t>
+  </si>
+  <si>
+    <t>I1-H15</t>
+  </si>
+  <si>
+    <t>I2-H10</t>
+  </si>
+  <si>
+    <t>I2-H11</t>
+  </si>
+  <si>
+    <t>I2-H12</t>
+  </si>
+  <si>
+    <t>I2-H13</t>
+  </si>
+  <si>
+    <t>I2-H14</t>
+  </si>
+  <si>
+    <t>I2-H15</t>
+  </si>
+  <si>
+    <t>I3-H10</t>
+  </si>
+  <si>
+    <t>I3-H11</t>
+  </si>
+  <si>
+    <t>I3-H12</t>
+  </si>
+  <si>
+    <t>I3-H13</t>
+  </si>
+  <si>
+    <t>I3-H14</t>
+  </si>
+  <si>
+    <t>I3-H15</t>
+  </si>
+  <si>
+    <t>EAI-123</t>
+  </si>
+  <si>
+    <t>ERI-123</t>
+  </si>
+  <si>
+    <t>ERE-123</t>
+  </si>
+  <si>
+    <t>EAP-123</t>
+  </si>
+  <si>
+    <t>EAI-001</t>
+  </si>
+  <si>
+    <t>ERI-001</t>
+  </si>
+  <si>
+    <t>ERE-001</t>
+  </si>
+  <si>
+    <t>EAP-001</t>
+  </si>
+  <si>
+    <t>EAI-002</t>
+  </si>
+  <si>
+    <t>ERI-002</t>
+  </si>
+  <si>
+    <t>ERE-002</t>
+  </si>
+  <si>
+    <t>EAP-002</t>
+  </si>
+  <si>
+    <t>EAI-003</t>
+  </si>
+  <si>
+    <t>ERI-003</t>
+  </si>
+  <si>
+    <t>ERE-003</t>
+  </si>
+  <si>
+    <t>EAP-003</t>
+  </si>
+  <si>
+    <t>I3-H01</t>
+  </si>
+  <si>
+    <t>I3-H02</t>
+  </si>
+  <si>
+    <t>I3-H03</t>
+  </si>
+  <si>
+    <t>I3-H04</t>
+  </si>
+  <si>
+    <t>I3-H05</t>
+  </si>
+  <si>
+    <t>I3-H06</t>
+  </si>
+  <si>
+    <t>I3-H07</t>
+  </si>
+  <si>
+    <t>I3-H08</t>
+  </si>
+  <si>
+    <t>I3-H09</t>
+  </si>
+  <si>
+    <t>I2-H01</t>
+  </si>
+  <si>
+    <t>I2-H02</t>
+  </si>
+  <si>
+    <t>I2-H03</t>
+  </si>
+  <si>
+    <t>I2-H04</t>
+  </si>
+  <si>
+    <t>I2-H05</t>
+  </si>
+  <si>
+    <t>I2-H06</t>
+  </si>
+  <si>
+    <t>I2-H07</t>
+  </si>
+  <si>
+    <t>I2-H08</t>
+  </si>
+  <si>
+    <t>I2-H09</t>
+  </si>
+  <si>
+    <t>I1-H01</t>
+  </si>
+  <si>
+    <t>I1-H02</t>
+  </si>
+  <si>
+    <t>I1-H03</t>
+  </si>
+  <si>
+    <t>I1-H04</t>
+  </si>
+  <si>
+    <t>I1-H05</t>
+  </si>
+  <si>
+    <t>I1-H06</t>
+  </si>
+  <si>
+    <t>I1-H07</t>
+  </si>
+  <si>
+    <t>I1-H08</t>
+  </si>
+  <si>
+    <t>I1-H09</t>
+  </si>
+  <si>
+    <t>V3-H02</t>
+  </si>
+  <si>
+    <t>V3-H03</t>
+  </si>
+  <si>
+    <t>V3-H04</t>
+  </si>
+  <si>
+    <t>V3-H05</t>
+  </si>
+  <si>
+    <t>V3-H06</t>
+  </si>
+  <si>
+    <t>V3-H07</t>
+  </si>
+  <si>
+    <t>V3-H08</t>
+  </si>
+  <si>
+    <t>V3-H09</t>
+  </si>
+  <si>
+    <t>V2-H02</t>
+  </si>
+  <si>
+    <t>V2-H03</t>
+  </si>
+  <si>
+    <t>V2-H04</t>
+  </si>
+  <si>
+    <t>V2-H05</t>
+  </si>
+  <si>
+    <t>V2-H06</t>
+  </si>
+  <si>
+    <t>V2-H07</t>
+  </si>
+  <si>
+    <t>V2-H08</t>
+  </si>
+  <si>
+    <t>V2-H09</t>
+  </si>
+  <si>
+    <t>V1-H02</t>
+  </si>
+  <si>
+    <t>V1-H03</t>
+  </si>
+  <si>
+    <t>V1-H04</t>
+  </si>
+  <si>
+    <t>V1-H05</t>
+  </si>
+  <si>
+    <t>V1-H06</t>
+  </si>
+  <si>
+    <t>V1-H07</t>
+  </si>
+  <si>
+    <t>V1-H08</t>
+  </si>
+  <si>
+    <t>V1-H09</t>
   </si>
 </sst>
 </file>
@@ -1851,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1864,102 +2221,102 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C2">
         <v>8086</v>
       </c>
       <c r="D2" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E2" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C3">
         <v>8086</v>
       </c>
       <c r="D3" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E3" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="F3" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C4">
         <v>8086</v>
       </c>
       <c r="D4" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="E4" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="F4" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C5">
         <v>8086</v>
       </c>
       <c r="D5" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E5" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F5" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1987,13 +2344,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2001,10 +2358,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C2">
         <v>502</v>
@@ -2035,13 +2392,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1">
@@ -2049,10 +2406,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2060,10 +2417,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C3" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2071,10 +2428,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C4" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2082,10 +2439,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2093,10 +2450,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C6" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2104,10 +2461,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2115,10 +2472,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C8" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2126,10 +2483,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C9" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2137,10 +2494,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C10" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2148,10 +2505,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C11" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2159,10 +2516,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C12" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2170,10 +2527,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C13" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2181,10 +2538,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C14" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2192,10 +2549,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C15" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2203,10 +2560,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C16" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2214,10 +2571,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C17" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2225,10 +2582,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C18" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2236,10 +2593,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C19" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2247,10 +2604,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2258,10 +2615,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="C21" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -2403,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2420,7 +2777,7 @@
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2428,10 +2785,10 @@
         <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2440,13 +2797,16 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>267</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2460,19 +2820,22 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>269</v>
+      </c>
+      <c r="I2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2486,19 +2849,22 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G3">
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>270</v>
+      </c>
+      <c r="I3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2512,19 +2878,22 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F4" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G4">
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>271</v>
+      </c>
+      <c r="I4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2538,19 +2907,22 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F5" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G5">
         <v>10000</v>
       </c>
       <c r="H5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>272</v>
+      </c>
+      <c r="I5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2564,19 +2936,22 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F6" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G6">
         <v>10000</v>
       </c>
       <c r="H6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>273</v>
+      </c>
+      <c r="I6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2590,19 +2965,22 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G7">
         <v>10000</v>
       </c>
       <c r="H7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>274</v>
+      </c>
+      <c r="I7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2616,19 +2994,22 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F8" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G8">
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>275</v>
+      </c>
+      <c r="I8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2642,19 +3023,22 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F9" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>276</v>
+      </c>
+      <c r="I9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2668,19 +3052,22 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F10" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>277</v>
+      </c>
+      <c r="I10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2694,19 +3081,22 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F11" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G11">
         <v>100000</v>
       </c>
       <c r="H11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>278</v>
+      </c>
+      <c r="I11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2720,19 +3110,22 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F12" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G12">
         <v>100000</v>
       </c>
       <c r="H12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>279</v>
+      </c>
+      <c r="I12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2746,19 +3139,22 @@
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F13" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G13">
         <v>100000</v>
       </c>
       <c r="H13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>280</v>
+      </c>
+      <c r="I13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -2772,19 +3168,22 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="F14" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G14">
         <v>100000</v>
       </c>
       <c r="H14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>282</v>
+      </c>
+      <c r="I14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -2798,19 +3197,22 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="F15" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G15">
         <v>100000</v>
       </c>
       <c r="H15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="I15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -2824,19 +3226,22 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="F16" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G16">
         <v>100000</v>
       </c>
       <c r="H16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>283</v>
+      </c>
+      <c r="I16" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2850,19 +3255,22 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F17" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G17">
         <v>100000</v>
       </c>
       <c r="H17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>284</v>
+      </c>
+      <c r="I17" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2876,19 +3284,22 @@
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F18" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G18">
         <v>100000</v>
       </c>
       <c r="H18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>285</v>
+      </c>
+      <c r="I18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2902,19 +3313,22 @@
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F19" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G19">
         <v>100000</v>
       </c>
       <c r="H19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2928,16 +3342,19 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G20">
         <v>10000</v>
       </c>
       <c r="H20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2951,16 +3368,19 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G21">
         <v>10000</v>
       </c>
       <c r="H21" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>288</v>
+      </c>
+      <c r="I21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2974,16 +3394,19 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G22">
         <v>10000</v>
       </c>
       <c r="H22" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>289</v>
+      </c>
+      <c r="I22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2997,19 +3420,22 @@
         <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G23">
         <v>1000</v>
       </c>
       <c r="H23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3023,19 +3449,22 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F24" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>290</v>
+      </c>
+      <c r="I24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3049,19 +3478,22 @@
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F25" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G25">
         <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>291</v>
+      </c>
+      <c r="I25" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3075,19 +3507,22 @@
         <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F26" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G26">
         <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>292</v>
+      </c>
+      <c r="I26" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3101,19 +3536,22 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F27" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G27">
         <v>100</v>
       </c>
       <c r="H27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>293</v>
+      </c>
+      <c r="I27" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3127,19 +3565,22 @@
         <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F28" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G28">
         <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>294</v>
+      </c>
+      <c r="I28" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3153,21 +3594,24 @@
         <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F29" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G29">
         <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>295</v>
+      </c>
+      <c r="I29" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B30">
         <v>3072</v>
@@ -3176,24 +3620,27 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G30">
         <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>296</v>
+      </c>
+      <c r="I30" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B31">
         <v>3074</v>
@@ -3202,24 +3649,27 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F31" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G31">
         <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>297</v>
+      </c>
+      <c r="I31" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B32">
         <v>3076</v>
@@ -3228,24 +3678,27 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F32" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G32">
         <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>303</v>
+      </c>
+      <c r="I32" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B33">
         <v>3078</v>
@@ -3254,24 +3707,27 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F33" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G33">
         <v>100</v>
       </c>
       <c r="H33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>298</v>
+      </c>
+      <c r="I33" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B34">
         <v>3080</v>
@@ -3280,24 +3736,27 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F34" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G34">
         <v>100</v>
       </c>
       <c r="H34" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>299</v>
+      </c>
+      <c r="I34" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B35">
         <v>3082</v>
@@ -3306,24 +3765,27 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F35" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G35">
         <v>100</v>
       </c>
       <c r="H35" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>300</v>
+      </c>
+      <c r="I35" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B36">
         <v>3084</v>
@@ -3332,24 +3794,27 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F36" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G36">
         <v>100</v>
       </c>
       <c r="H36" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>301</v>
+      </c>
+      <c r="I36" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B37">
         <v>3086</v>
@@ -3358,24 +3823,27 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F37" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G37">
         <v>100</v>
       </c>
       <c r="H37" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>302</v>
+      </c>
+      <c r="I37" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B38">
         <v>3088</v>
@@ -3384,24 +3852,27 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F38" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G38">
         <v>100</v>
       </c>
       <c r="H38" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>304</v>
+      </c>
+      <c r="I38" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B39">
         <v>3090</v>
@@ -3410,24 +3881,27 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E39" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F39" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G39">
         <v>100</v>
       </c>
       <c r="H39" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>305</v>
+      </c>
+      <c r="I39" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B40">
         <v>3092</v>
@@ -3436,24 +3910,27 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F40" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G40">
         <v>100</v>
       </c>
       <c r="H40" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>306</v>
+      </c>
+      <c r="I40" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B41">
         <v>3094</v>
@@ -3462,24 +3939,27 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F41" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G41">
         <v>100</v>
       </c>
       <c r="H41" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>307</v>
+      </c>
+      <c r="I41" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B42">
         <v>3096</v>
@@ -3488,24 +3968,27 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F42" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G42">
         <v>100</v>
       </c>
       <c r="H42" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>308</v>
+      </c>
+      <c r="I42" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B43">
         <v>3098</v>
@@ -3514,24 +3997,27 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F43" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G43">
         <v>100</v>
       </c>
       <c r="H43" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>309</v>
+      </c>
+      <c r="I43" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B44">
         <v>3136</v>
@@ -3540,24 +4026,27 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F44" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G44">
         <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>310</v>
+      </c>
+      <c r="I44" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B45">
         <v>3138</v>
@@ -3566,24 +4055,27 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F45" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G45">
         <v>100</v>
       </c>
       <c r="H45" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>311</v>
+      </c>
+      <c r="I45" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B46">
         <v>3140</v>
@@ -3592,24 +4084,27 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F46" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G46">
         <v>100</v>
       </c>
       <c r="H46" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>312</v>
+      </c>
+      <c r="I46" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B47">
         <v>3142</v>
@@ -3618,24 +4113,27 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F47" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G47">
         <v>100</v>
       </c>
       <c r="H47" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>313</v>
+      </c>
+      <c r="I47" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B48">
         <v>3144</v>
@@ -3644,24 +4142,27 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F48" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G48">
         <v>100</v>
       </c>
       <c r="H48" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>314</v>
+      </c>
+      <c r="I48" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B49">
         <v>3146</v>
@@ -3670,24 +4171,27 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F49" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G49">
         <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>315</v>
+      </c>
+      <c r="I49" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B50">
         <v>3148</v>
@@ -3696,24 +4200,27 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E50" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F50" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G50">
         <v>100</v>
       </c>
       <c r="H50" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>316</v>
+      </c>
+      <c r="I50" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B51">
         <v>3150</v>
@@ -3722,24 +4229,27 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F51" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G51">
         <v>100</v>
       </c>
       <c r="H51" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>317</v>
+      </c>
+      <c r="I51" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B52">
         <v>3152</v>
@@ -3748,24 +4258,27 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F52" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G52">
         <v>100</v>
       </c>
       <c r="H52" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>318</v>
+      </c>
+      <c r="I52" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B53">
         <v>3154</v>
@@ -3774,24 +4287,27 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E53" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F53" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G53">
         <v>100</v>
       </c>
       <c r="H53" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>319</v>
+      </c>
+      <c r="I53" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B54">
         <v>3156</v>
@@ -3800,24 +4316,27 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F54" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G54">
         <v>100</v>
       </c>
       <c r="H54" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>320</v>
+      </c>
+      <c r="I54" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B55">
         <v>3158</v>
@@ -3826,24 +4345,27 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F55" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G55">
         <v>100</v>
       </c>
       <c r="H55" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>321</v>
+      </c>
+      <c r="I55" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B56">
         <v>3160</v>
@@ -3852,24 +4374,27 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F56" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G56">
         <v>100</v>
       </c>
       <c r="H56" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>322</v>
+      </c>
+      <c r="I56" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B57">
         <v>3162</v>
@@ -3878,24 +4403,27 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E57" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F57" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G57">
         <v>100</v>
       </c>
       <c r="H57" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>323</v>
+      </c>
+      <c r="I57" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B58">
         <v>3200</v>
@@ -3904,24 +4432,27 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E58" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F58" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G58">
         <v>100</v>
       </c>
       <c r="H58" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>324</v>
+      </c>
+      <c r="I58" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B59">
         <v>3202</v>
@@ -3930,24 +4461,27 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F59" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G59">
         <v>100</v>
       </c>
       <c r="H59" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>325</v>
+      </c>
+      <c r="I59" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B60">
         <v>3204</v>
@@ -3956,24 +4490,27 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F60" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G60">
         <v>100</v>
       </c>
       <c r="H60" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>326</v>
+      </c>
+      <c r="I60" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B61">
         <v>3206</v>
@@ -3982,24 +4519,27 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F61" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G61">
         <v>100</v>
       </c>
       <c r="H61" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>327</v>
+      </c>
+      <c r="I61" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B62">
         <v>3208</v>
@@ -4008,24 +4548,27 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F62" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G62">
         <v>100</v>
       </c>
       <c r="H62" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>328</v>
+      </c>
+      <c r="I62" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B63">
         <v>3210</v>
@@ -4034,24 +4577,27 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F63" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G63">
         <v>100</v>
       </c>
       <c r="H63" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>329</v>
+      </c>
+      <c r="I63" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B64">
         <v>3212</v>
@@ -4060,24 +4606,27 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F64" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G64">
         <v>100</v>
       </c>
       <c r="H64" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>330</v>
+      </c>
+      <c r="I64" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B65">
         <v>3214</v>
@@ -4086,24 +4635,27 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F65" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G65">
         <v>100</v>
       </c>
       <c r="H65" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>331</v>
+      </c>
+      <c r="I65" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B66">
         <v>3216</v>
@@ -4112,24 +4664,27 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F66" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G66">
         <v>100</v>
       </c>
       <c r="H66" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>332</v>
+      </c>
+      <c r="I66" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B67">
         <v>3218</v>
@@ -4138,24 +4693,27 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F67" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G67">
         <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>333</v>
+      </c>
+      <c r="I67" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B68">
         <v>3220</v>
@@ -4164,24 +4722,27 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E68" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F68" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G68">
         <v>100</v>
       </c>
       <c r="H68" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>334</v>
+      </c>
+      <c r="I68" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B69">
         <v>3222</v>
@@ -4190,24 +4751,27 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F69" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G69">
         <v>100</v>
       </c>
       <c r="H69" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>335</v>
+      </c>
+      <c r="I69" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B70">
         <v>3224</v>
@@ -4216,24 +4780,27 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E70" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F70" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G70">
         <v>100</v>
       </c>
       <c r="H70" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>336</v>
+      </c>
+      <c r="I70" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B71">
         <v>3226</v>
@@ -4242,24 +4809,27 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E71" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F71" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G71">
         <v>100</v>
       </c>
       <c r="H71" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>337</v>
+      </c>
+      <c r="I71" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B72">
         <v>3264</v>
@@ -4268,24 +4838,27 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E72" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F72" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G72">
         <v>100</v>
       </c>
       <c r="H72" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>340</v>
+      </c>
+      <c r="I72" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B73">
         <v>3266</v>
@@ -4294,24 +4867,27 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E73" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F73" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G73">
         <v>100</v>
       </c>
       <c r="H73" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>338</v>
+      </c>
+      <c r="I73" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B74">
         <v>3268</v>
@@ -4320,24 +4896,27 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E74" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F74" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G74">
         <v>100</v>
       </c>
       <c r="H74" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>339</v>
+      </c>
+      <c r="I74" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B75">
         <v>3270</v>
@@ -4346,24 +4925,27 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E75" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F75" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G75">
         <v>100</v>
       </c>
       <c r="H75" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>341</v>
+      </c>
+      <c r="I75" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B76">
         <v>3272</v>
@@ -4372,24 +4954,27 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E76" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F76" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G76">
         <v>100</v>
       </c>
       <c r="H76" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>342</v>
+      </c>
+      <c r="I76" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B77">
         <v>3274</v>
@@ -4398,24 +4983,27 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E77" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F77" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G77">
         <v>100</v>
       </c>
       <c r="H77" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>343</v>
+      </c>
+      <c r="I77" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B78">
         <v>3276</v>
@@ -4424,24 +5012,27 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E78" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F78" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G78">
         <v>100</v>
       </c>
       <c r="H78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>344</v>
+      </c>
+      <c r="I78" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B79">
         <v>3278</v>
@@ -4450,24 +5041,27 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E79" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F79" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G79">
         <v>100</v>
       </c>
       <c r="H79" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>345</v>
+      </c>
+      <c r="I79" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B80">
         <v>3280</v>
@@ -4476,24 +5070,27 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E80" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F80" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G80">
         <v>100</v>
       </c>
       <c r="H80" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>346</v>
+      </c>
+      <c r="I80" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B81">
         <v>3282</v>
@@ -4502,24 +5099,27 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E81" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F81" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G81">
         <v>100</v>
       </c>
       <c r="H81" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>347</v>
+      </c>
+      <c r="I81" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B82">
         <v>3284</v>
@@ -4528,24 +5128,27 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E82" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F82" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G82">
         <v>100</v>
       </c>
       <c r="H82" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>348</v>
+      </c>
+      <c r="I82" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B83">
         <v>3286</v>
@@ -4554,24 +5157,27 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E83" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F83" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G83">
         <v>100</v>
       </c>
       <c r="H83" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>349</v>
+      </c>
+      <c r="I83" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B84">
         <v>3288</v>
@@ -4580,24 +5186,27 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E84" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F84" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G84">
         <v>100</v>
       </c>
       <c r="H84" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>350</v>
+      </c>
+      <c r="I84" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B85">
         <v>3290</v>
@@ -4606,24 +5215,27 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E85" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F85" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G85">
         <v>100</v>
       </c>
       <c r="H85" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>351</v>
+      </c>
+      <c r="I85" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B86">
         <v>3292</v>
@@ -4632,24 +5244,27 @@
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E86" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F86" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G86">
         <v>100</v>
       </c>
       <c r="H86" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>352</v>
+      </c>
+      <c r="I86" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B87">
         <v>3328</v>
@@ -4658,24 +5273,27 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F87" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G87">
         <v>100</v>
       </c>
       <c r="H87" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>353</v>
+      </c>
+      <c r="I87" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>3330</v>
@@ -4684,24 +5302,27 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E88" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F88" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G88">
         <v>100</v>
       </c>
       <c r="H88" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>354</v>
+      </c>
+      <c r="I88" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B89">
         <v>3332</v>
@@ -4710,24 +5331,27 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E89" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F89" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G89">
         <v>100</v>
       </c>
       <c r="H89" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>367</v>
+      </c>
+      <c r="I89" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B90">
         <v>3334</v>
@@ -4736,24 +5360,27 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E90" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F90" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G90">
         <v>100</v>
       </c>
       <c r="H90" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>355</v>
+      </c>
+      <c r="I90" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B91">
         <v>3336</v>
@@ -4762,24 +5389,27 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E91" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F91" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G91">
         <v>100</v>
       </c>
       <c r="H91" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>356</v>
+      </c>
+      <c r="I91" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B92">
         <v>3338</v>
@@ -4788,24 +5418,27 @@
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E92" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F92" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G92">
         <v>100</v>
       </c>
       <c r="H92" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>357</v>
+      </c>
+      <c r="I92" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B93">
         <v>3340</v>
@@ -4814,24 +5447,27 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E93" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F93" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G93">
         <v>100</v>
       </c>
       <c r="H93" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>358</v>
+      </c>
+      <c r="I93" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B94">
         <v>3342</v>
@@ -4840,24 +5476,27 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E94" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F94" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G94">
         <v>100</v>
       </c>
       <c r="H94" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>359</v>
+      </c>
+      <c r="I94" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B95">
         <v>3344</v>
@@ -4866,24 +5505,27 @@
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E95" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F95" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G95">
         <v>100</v>
       </c>
       <c r="H95" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>360</v>
+      </c>
+      <c r="I95" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B96">
         <v>3346</v>
@@ -4892,24 +5534,27 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E96" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F96" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G96">
         <v>100</v>
       </c>
       <c r="H96" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>361</v>
+      </c>
+      <c r="I96" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B97">
         <v>3348</v>
@@ -4918,24 +5563,27 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E97" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F97" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G97">
         <v>100</v>
       </c>
       <c r="H97" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>362</v>
+      </c>
+      <c r="I97" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B98">
         <v>3350</v>
@@ -4944,24 +5592,27 @@
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E98" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F98" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G98">
         <v>100</v>
       </c>
       <c r="H98" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>363</v>
+      </c>
+      <c r="I98" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B99">
         <v>3352</v>
@@ -4970,24 +5621,27 @@
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E99" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F99" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G99">
         <v>100</v>
       </c>
       <c r="H99" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>364</v>
+      </c>
+      <c r="I99" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B100">
         <v>3354</v>
@@ -4996,24 +5650,27 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E100" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F100" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G100">
         <v>100</v>
       </c>
       <c r="H100" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>365</v>
+      </c>
+      <c r="I100" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B101">
         <v>3356</v>
@@ -5022,24 +5679,27 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E101" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F101" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G101">
         <v>100</v>
       </c>
       <c r="H101" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>366</v>
+      </c>
+      <c r="I101" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>3392</v>
@@ -5048,24 +5708,27 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E102" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F102" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G102">
         <v>100</v>
       </c>
       <c r="H102" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>368</v>
+      </c>
+      <c r="I102" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B103">
         <v>3394</v>
@@ -5074,24 +5737,27 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E103" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F103" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G103">
         <v>100</v>
       </c>
       <c r="H103" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>369</v>
+      </c>
+      <c r="I103" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B104">
         <v>3396</v>
@@ -5100,24 +5766,27 @@
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E104" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F104" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G104">
         <v>100</v>
       </c>
       <c r="H104" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>370</v>
+      </c>
+      <c r="I104" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B105">
         <v>3398</v>
@@ -5126,24 +5795,27 @@
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E105" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F105" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G105">
         <v>100</v>
       </c>
       <c r="H105" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>371</v>
+      </c>
+      <c r="I105" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B106">
         <v>3400</v>
@@ -5152,24 +5824,27 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E106" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F106" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G106">
         <v>100</v>
       </c>
       <c r="H106" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>372</v>
+      </c>
+      <c r="I106" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B107">
         <v>3402</v>
@@ -5178,24 +5853,27 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E107" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F107" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G107">
         <v>100</v>
       </c>
       <c r="H107" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>373</v>
+      </c>
+      <c r="I107" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B108">
         <v>3404</v>
@@ -5204,24 +5882,27 @@
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E108" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F108" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G108">
         <v>100</v>
       </c>
       <c r="H108" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>374</v>
+      </c>
+      <c r="I108" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B109">
         <v>3406</v>
@@ -5230,24 +5911,27 @@
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E109" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F109" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G109">
         <v>100</v>
       </c>
       <c r="H109" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>375</v>
+      </c>
+      <c r="I109" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B110">
         <v>3408</v>
@@ -5256,24 +5940,27 @@
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E110" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F110" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G110">
         <v>100</v>
       </c>
       <c r="H110" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>376</v>
+      </c>
+      <c r="I110" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B111">
         <v>3410</v>
@@ -5282,24 +5969,27 @@
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E111" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F111" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G111">
         <v>100</v>
       </c>
       <c r="H111" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>377</v>
+      </c>
+      <c r="I111" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B112">
         <v>3412</v>
@@ -5308,24 +5998,27 @@
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E112" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F112" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G112">
         <v>100</v>
       </c>
       <c r="H112" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>378</v>
+      </c>
+      <c r="I112" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B113">
         <v>3414</v>
@@ -5334,24 +6027,27 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E113" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F113" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G113">
         <v>100</v>
       </c>
       <c r="H113" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>379</v>
+      </c>
+      <c r="I113" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B114">
         <v>3416</v>
@@ -5360,24 +6056,27 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E114" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F114" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G114">
         <v>100</v>
       </c>
       <c r="H114" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>380</v>
+      </c>
+      <c r="I114" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B115">
         <v>3418</v>
@@ -5386,24 +6085,27 @@
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E115" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F115" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G115">
         <v>100</v>
       </c>
       <c r="H115" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>381</v>
+      </c>
+      <c r="I115" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B116">
         <v>3420</v>
@@ -5412,22 +6114,25 @@
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E116" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F116" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G116">
         <v>100</v>
       </c>
       <c r="H116" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>382</v>
+      </c>
+      <c r="I116" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -5441,24 +6146,27 @@
         <v>61</v>
       </c>
       <c r="E117" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F117" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G117">
         <v>100</v>
       </c>
       <c r="H117" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>394</v>
+      </c>
+      <c r="I117" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>62</v>
       </c>
       <c r="B118">
-        <v>6947</v>
+        <v>6951</v>
       </c>
       <c r="C118">
         <v>4</v>
@@ -5467,24 +6175,27 @@
         <v>63</v>
       </c>
       <c r="E118" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="F118" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="G118">
         <v>100</v>
       </c>
       <c r="H118" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>395</v>
+      </c>
+      <c r="I118" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>64</v>
       </c>
       <c r="B119">
-        <v>6951</v>
+        <v>6955</v>
       </c>
       <c r="C119">
         <v>4</v>
@@ -5493,24 +6204,27 @@
         <v>65</v>
       </c>
       <c r="E119" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F119" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="G119">
         <v>100</v>
       </c>
       <c r="H119" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>396</v>
+      </c>
+      <c r="I119" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>66</v>
       </c>
       <c r="B120">
-        <v>6955</v>
+        <v>6959</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -5519,24 +6233,27 @@
         <v>67</v>
       </c>
       <c r="E120" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="F120" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="G120">
         <v>100</v>
       </c>
       <c r="H120" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>397</v>
+      </c>
+      <c r="I120" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>68</v>
       </c>
       <c r="B121">
-        <v>6959</v>
+        <v>7063</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -5545,24 +6262,27 @@
         <v>69</v>
       </c>
       <c r="E121" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F121" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G121">
         <v>100</v>
       </c>
       <c r="H121" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>386</v>
+      </c>
+      <c r="I121" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>70</v>
       </c>
       <c r="B122">
-        <v>7063</v>
+        <v>7071</v>
       </c>
       <c r="C122">
         <v>4</v>
@@ -5571,24 +6291,27 @@
         <v>71</v>
       </c>
       <c r="E122" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="F122" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G122">
         <v>100</v>
       </c>
       <c r="H122" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>390</v>
+      </c>
+      <c r="I122" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>72</v>
       </c>
       <c r="B123">
-        <v>7067</v>
+        <v>7075</v>
       </c>
       <c r="C123">
         <v>4</v>
@@ -5597,24 +6320,27 @@
         <v>73</v>
       </c>
       <c r="E123" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="F123" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G123">
         <v>100</v>
       </c>
       <c r="H123" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>389</v>
+      </c>
+      <c r="I123" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>74</v>
       </c>
       <c r="B124">
-        <v>7071</v>
+        <v>7079</v>
       </c>
       <c r="C124">
         <v>4</v>
@@ -5623,24 +6349,27 @@
         <v>75</v>
       </c>
       <c r="E124" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F124" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G124">
         <v>100</v>
       </c>
       <c r="H124" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>383</v>
+      </c>
+      <c r="I124" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>76</v>
       </c>
       <c r="B125">
-        <v>7075</v>
+        <v>7083</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -5649,24 +6378,27 @@
         <v>77</v>
       </c>
       <c r="E125" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="F125" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G125">
         <v>100</v>
       </c>
       <c r="H125" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>387</v>
+      </c>
+      <c r="I125" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>78</v>
       </c>
       <c r="B126">
-        <v>7079</v>
+        <v>7091</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -5675,10 +6407,10 @@
         <v>79</v>
       </c>
       <c r="E126" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="F126" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G126">
         <v>100</v>
@@ -5686,13 +6418,16 @@
       <c r="H126" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>80</v>
       </c>
       <c r="B127">
-        <v>7083</v>
+        <v>7095</v>
       </c>
       <c r="C127">
         <v>4</v>
@@ -5701,24 +6436,27 @@
         <v>81</v>
       </c>
       <c r="E127" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="F127" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G127">
         <v>100</v>
       </c>
       <c r="H127" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
+        <v>393</v>
+      </c>
+      <c r="I127" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B128">
-        <v>7087</v>
+        <v>7099</v>
       </c>
       <c r="C128">
         <v>4</v>
@@ -5727,24 +6465,27 @@
         <v>83</v>
       </c>
       <c r="E128" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F128" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G128">
         <v>100</v>
       </c>
       <c r="H128" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" t="s">
+        <v>384</v>
+      </c>
+      <c r="I128" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B129">
-        <v>7091</v>
+        <v>7103</v>
       </c>
       <c r="C129">
         <v>4</v>
@@ -5753,24 +6494,27 @@
         <v>85</v>
       </c>
       <c r="E129" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="F129" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G129">
         <v>100</v>
       </c>
       <c r="H129" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
+        <v>388</v>
+      </c>
+      <c r="I129" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B130">
-        <v>7095</v>
+        <v>7111</v>
       </c>
       <c r="C130">
         <v>4</v>
@@ -5779,24 +6523,27 @@
         <v>87</v>
       </c>
       <c r="E130" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F130" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G130">
         <v>100</v>
       </c>
       <c r="H130" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="I130" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
         <v>88</v>
       </c>
       <c r="B131">
-        <v>7099</v>
+        <v>7115</v>
       </c>
       <c r="C131">
         <v>4</v>
@@ -5805,24 +6552,27 @@
         <v>89</v>
       </c>
       <c r="E131" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="F131" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G131">
         <v>100</v>
       </c>
       <c r="H131" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="I131" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
         <v>90</v>
       </c>
       <c r="B132">
-        <v>7103</v>
+        <v>7119</v>
       </c>
       <c r="C132">
         <v>4</v>
@@ -5831,120 +6581,19 @@
         <v>91</v>
       </c>
       <c r="E132" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F132" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G132">
         <v>100</v>
       </c>
       <c r="H132" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B133">
-        <v>7107</v>
-      </c>
-      <c r="C133">
-        <v>4</v>
-      </c>
-      <c r="D133" t="s">
-        <v>93</v>
-      </c>
-      <c r="E133" t="s">
-        <v>416</v>
-      </c>
-      <c r="F133" t="s">
-        <v>440</v>
-      </c>
-      <c r="G133">
-        <v>100</v>
-      </c>
-      <c r="H133" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B134">
-        <v>7111</v>
-      </c>
-      <c r="C134">
-        <v>4</v>
-      </c>
-      <c r="D134" t="s">
-        <v>95</v>
-      </c>
-      <c r="E134" t="s">
-        <v>417</v>
-      </c>
-      <c r="F134" t="s">
-        <v>440</v>
-      </c>
-      <c r="G134">
-        <v>100</v>
-      </c>
-      <c r="H134" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="s">
-        <v>96</v>
-      </c>
-      <c r="B135">
-        <v>7115</v>
-      </c>
-      <c r="C135">
-        <v>4</v>
-      </c>
-      <c r="D135" t="s">
-        <v>97</v>
-      </c>
-      <c r="E135" t="s">
-        <v>417</v>
-      </c>
-      <c r="F135" t="s">
-        <v>440</v>
-      </c>
-      <c r="G135">
-        <v>100</v>
-      </c>
-      <c r="H135" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" t="s">
-        <v>98</v>
-      </c>
-      <c r="B136">
-        <v>7119</v>
-      </c>
-      <c r="C136">
-        <v>4</v>
-      </c>
-      <c r="D136" t="s">
-        <v>99</v>
-      </c>
-      <c r="E136" t="s">
-        <v>418</v>
-      </c>
-      <c r="F136" t="s">
-        <v>440</v>
-      </c>
-      <c r="G136">
-        <v>100</v>
-      </c>
-      <c r="H136" t="s">
-        <v>393</v>
+        <v>385</v>
+      </c>
+      <c r="I132" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
